--- a/static/populate_test_basic.xlsx
+++ b/static/populate_test_basic.xlsx
@@ -9,100 +9,106 @@
     <sheet state="visible" name="packaging" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="2" name="Z_8DDF8D1C_A0B0_4512_9EC2_50483F72466C_.wvu.FilterData">quantity!$A$1:$E$54</definedName>
+    <definedName hidden="1" localSheetId="2" name="Z_BDDACD0A_05B5_4067_BC31_6A3F6561344D_.wvu.FilterData">quantity!$A$1:$E$54</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{8DDF8D1C-A0B0-4512-9EC2-50483F72466C}" name="Recette"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{BDDACD0A-05B5-4067-BC31-6A3F6561344D}" name="Recette"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>CATEGORY</t>
   </si>
   <si>
+    <t>PRODUCT</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>ML TO GOUTTE</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Huile vegetale</t>
+  </si>
+  <si>
+    <t>huile vegetale coco</t>
+  </si>
+  <si>
+    <t>https://www.aroma-zone.com/info/fiche-technique/huile-vegetale-coco-bio-aroma-zone</t>
+  </si>
+  <si>
+    <t>huile vegetale avocat</t>
+  </si>
+  <si>
+    <t>https://www.aroma-zone.com/info/fiche-technique/huile-vegetale-avocat-bio-aroma-zone</t>
+  </si>
+  <si>
+    <t>cire</t>
+  </si>
+  <si>
+    <t>cire abeille</t>
+  </si>
+  <si>
+    <t>https://www.aroma-zone.com/info/fiche-technique/cire-abeille-jaune-bio-aroma-zone</t>
+  </si>
+  <si>
+    <t>LABEL</t>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>CONTAINER</t>
+  </si>
+  <si>
+    <t>CONSERVATION</t>
+  </si>
+  <si>
+    <t>LEVEL</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>Recette 1</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>Pot</t>
+  </si>
+  <si>
+    <t>starter</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/105liG2ev6BnN-jsOdP9HTCVPDwF61G2jSHsrJteaWmc/edit#gid=725273974</t>
+  </si>
+  <si>
+    <t>Recette 2</t>
+  </si>
+  <si>
+    <t>FLACON_CREME</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
     <t>RECIPE</t>
   </si>
   <si>
-    <t>LABEL</t>
-  </si>
-  <si>
-    <t>PRODUCT</t>
-  </si>
-  <si>
-    <t>QUANTITY</t>
-  </si>
-  <si>
-    <t>UNIT</t>
-  </si>
-  <si>
-    <t>CONTAINER</t>
-  </si>
-  <si>
-    <t>CONSERVATION</t>
-  </si>
-  <si>
-    <t>LEVEL</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Recette 1</t>
-  </si>
-  <si>
-    <t>huile vegetale avocat</t>
-  </si>
-  <si>
-    <t>ml</t>
-  </si>
-  <si>
-    <t>Pot</t>
-  </si>
-  <si>
-    <t>starter</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/spreadsheets/d/105liG2ev6BnN-jsOdP9HTCVPDwF61G2jSHsrJteaWmc/edit#gid=725273974</t>
-  </si>
-  <si>
-    <t>huile vegetale coco</t>
-  </si>
-  <si>
-    <t>Recette 2</t>
-  </si>
-  <si>
-    <t>cire abeille</t>
-  </si>
-  <si>
     <t>grams</t>
-  </si>
-  <si>
-    <t>FLACON_CREME</t>
-  </si>
-  <si>
-    <t>advanced</t>
-  </si>
-  <si>
-    <t>Huile vegetale</t>
-  </si>
-  <si>
-    <t>https://www.aroma-zone.com/info/fiche-technique/huile-vegetale-coco-bio-aroma-zone</t>
-  </si>
-  <si>
-    <t>https://www.aroma-zone.com/info/fiche-technique/huile-vegetale-avocat-bio-aroma-zone</t>
-  </si>
-  <si>
-    <t>cire</t>
-  </si>
-  <si>
-    <t>https://www.aroma-zone.com/info/fiche-technique/cire-abeille-jaune-bio-aroma-zone</t>
   </si>
   <si>
     <t>PRICE</t>
@@ -112,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -125,9 +131,24 @@
     </font>
     <font>
       <b/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="11.0"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font/>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
     </font>
     <font>
       <b/>
@@ -138,33 +159,22 @@
     <font>
       <sz val="9.0"/>
       <color rgb="FF4C4C4C"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="9.0"/>
       <color rgb="FF4C4C4C"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="9.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
     </font>
   </fonts>
   <fills count="7">
@@ -182,8 +192,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE69138"/>
-        <bgColor rgb="FFE69138"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -194,8 +204,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFE69138"/>
+        <bgColor rgb="FFE69138"/>
       </patternFill>
     </fill>
     <fill>
@@ -229,62 +239,65 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -521,59 +534,80 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="23.71"/>
     <col customWidth="1" min="2" max="2" width="22.71"/>
-    <col customWidth="1" min="3" max="3" width="73.57"/>
+    <col customWidth="1" min="3" max="5" width="35.86"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="D2" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="D3" s="7">
+        <v>22.0</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
-    <hyperlink r:id="rId3" ref="C4"/>
+    <hyperlink r:id="rId1" ref="E2"/>
+    <hyperlink r:id="rId2" ref="E3"/>
+    <hyperlink r:id="rId3" ref="E4"/>
   </hyperlinks>
   <drawing r:id="rId4"/>
 </worksheet>
@@ -595,122 +629,122 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="9">
+      <c r="A2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5">
         <v>50.0</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5">
         <v>6.0</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="F2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5">
         <v>10.0</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>16</v>
+      <c r="H2" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="A3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5">
         <v>50.0</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="9">
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5">
         <v>3.0</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="F3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="5">
         <v>20.0</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>16</v>
+      <c r="H3" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7"/>
-      <c r="H4" s="16"/>
+      <c r="A4" s="12"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5">
-      <c r="A5" s="7"/>
-      <c r="H5" s="16"/>
+      <c r="A5" s="12"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6">
-      <c r="A6" s="7"/>
-      <c r="H6" s="16"/>
+      <c r="A6" s="12"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7">
-      <c r="A7" s="7"/>
-      <c r="H7" s="16"/>
+      <c r="A7" s="12"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8">
-      <c r="A8" s="7"/>
-      <c r="H8" s="16"/>
+      <c r="A8" s="12"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9">
-      <c r="A9" s="7"/>
-      <c r="H9" s="16"/>
+      <c r="A9" s="12"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10">
-      <c r="A10" s="7"/>
-      <c r="H10" s="16"/>
+      <c r="A10" s="12"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11">
-      <c r="A11" s="7"/>
-      <c r="H11" s="16"/>
+      <c r="A11" s="12"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="7"/>
-      <c r="H12" s="16"/>
+      <c r="A12" s="12"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13">
-      <c r="A13" s="7"/>
-      <c r="H13" s="16"/>
+      <c r="A13" s="12"/>
+      <c r="H13" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -739,420 +773,420 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
+      <c r="C1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="17">
+        <v>10.0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="17">
+        <v>10.0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="17">
+        <v>10.0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="C5" s="17">
         <v>5.0</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>20</v>
+      <c r="D5" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="34">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
     </row>
     <row r="35">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
     </row>
     <row r="36">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
     </row>
     <row r="37">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
     </row>
     <row r="38">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
     </row>
     <row r="39">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
     </row>
     <row r="40">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
     </row>
     <row r="41">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
     </row>
     <row r="42">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
     </row>
     <row r="43">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
     </row>
     <row r="44">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
     </row>
     <row r="45">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
     </row>
     <row r="46">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
     </row>
     <row r="47">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
     </row>
     <row r="48">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
     </row>
     <row r="49">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
     </row>
     <row r="50">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
     </row>
     <row r="51">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
     </row>
     <row r="53">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
     </row>
     <row r="54">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
     </row>
     <row r="55">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
     </row>
     <row r="56">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
     </row>
     <row r="57">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
     </row>
     <row r="58">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
     </row>
     <row r="59">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
     </row>
     <row r="60">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
     </row>
     <row r="61">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
     </row>
     <row r="62">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{8DDF8D1C-A0B0-4512-9EC2-50483F72466C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{BDDACD0A-05B5-4067-BC31-6A3F6561344D}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$E$54">
         <sortState ref="A1:E54">
           <sortCondition ref="A1:A54"/>
@@ -1179,72 +1213,72 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>28</v>
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5">
         <v>5.0</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="5">
         <v>3.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5">
         <v>15.0</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="5">
         <v>6.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5">
         <v>20.0</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
         <v>5.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="5">
         <v>20.0</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <v>7.0</v>
       </c>
     </row>
